--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>VLaskin</author>
+  </authors>
+  <commentList>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>разьемы кроме мам, паралельно идут папы.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>GREAT WALL Electronics Co., Ltd.</t>
   </si>
@@ -85,13 +109,22 @@
   </si>
   <si>
     <t>Arduino NANO</t>
+  </si>
+  <si>
+    <t>Ruby's shop</t>
+  </si>
+  <si>
+    <t>174,49</t>
+  </si>
+  <si>
+    <t>несмотря на цены, магазин нравится больше, так как показывает описание изделия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +152,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -153,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -404,6 +444,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -414,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,12 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -497,6 +544,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,11 +866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,413 +882,430 @@
     <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="19.85546875" style="2"/>
+    <col min="13" max="13" width="84.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="19.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="16" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="30" t="s">
+    </row>
+    <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="11">
+      <c r="C5" s="18"/>
+      <c r="D5" s="9">
         <v>403.56</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>540.25</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
         <v>221.31</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
         <v>344.33</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="11">
+      <c r="C6" s="18"/>
+      <c r="D6" s="9">
         <v>541.54999999999995</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>657.41</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
         <v>194.62</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
         <v>362.55</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="11">
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>585.80999999999995</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>598.83000000000004</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>240.84</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
         <v>329.36</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9">
         <v>598.83000000000004</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>240.84</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9">
         <v>329.36</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="11">
+      <c r="C9" s="19"/>
+      <c r="D9" s="9">
         <v>494.03</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <v>607.29</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>240.84</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>180.95</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>343.03</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11">
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
         <v>175.75</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>377.52</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="C11" s="20"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>641.13</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <v>253.85</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <v>358</v>
       </c>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="11">
+      <c r="C12" s="20"/>
+      <c r="D12" s="9">
         <v>490.78</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>598.83000000000004</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <v>240.84</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <v>329.36</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12">
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
         <v>126.28</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="C13" s="20"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>455.63</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>617.04999999999995</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
         <v>268.17</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
         <v>372.97</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12">
+      <c r="K13" s="9"/>
+      <c r="L13" s="10">
         <v>143.19999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="11">
+      <c r="C14" s="20"/>
+      <c r="D14" s="9">
         <v>445.87</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>389.25</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>546.75</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>169.24</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>325.45</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>312.43</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>154.91999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="11">
+      <c r="C15" s="20"/>
+      <c r="D15" s="9">
         <v>529.83000000000004</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>655.45</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>215.45</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
         <v>361.9</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>156.22</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22">
+        <v>587.1</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>257.97000000000003</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
+        <v>483.78</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="B20" s="8"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <v>1</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3">
         <f t="shared" ref="D22:L22" si="0">AVERAGE(D5:D20)</f>
-        <v>498.77571428571417</v>
+        <v>509.81624999999991</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
@@ -1248,7 +1321,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
-        <v>237.66374999999999</v>
+        <v>239.91999999999996</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
@@ -1256,7 +1329,7 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="0"/>
-        <v>345.99222222222215</v>
+        <v>359.7709999999999</v>
       </c>
       <c r="K22" s="3">
         <f>AVERAGE(K5:K20)</f>
@@ -1287,9 +1360,11 @@
     <hyperlink ref="B13" r:id="rId9" display="http://ru.aliexpress.com/store/1757110"/>
     <hyperlink ref="B14" r:id="rId10" display="http://ru.aliexpress.com/store/1516062"/>
     <hyperlink ref="B15" r:id="rId11" display="http://ru.aliexpress.com/store/1182157"/>
+    <hyperlink ref="B16" r:id="rId12" display="http://ru.aliexpress.com/store/214486"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="12435" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="12435" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="магазины" sheetId="1" r:id="rId1"/>
+    <sheet name="изделия" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>GREAT WALL Electronics Co., Ltd.</t>
   </si>
@@ -118,13 +117,73 @@
   </si>
   <si>
     <t>несмотря на цены, магазин нравится больше, так как показывает описание изделия</t>
+  </si>
+  <si>
+    <t>MG995</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>назначение</t>
+  </si>
+  <si>
+    <t>~цена</t>
+  </si>
+  <si>
+    <t>SM-S4306R</t>
+  </si>
+  <si>
+    <t>особенности / описание</t>
+  </si>
+  <si>
+    <t>40 мм x 19 мм x 43 мм</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все шестерни из металла 360° </t>
+  </si>
+  <si>
+    <t>42 мм x 20.2 мм x 39.5 мм</t>
+  </si>
+  <si>
+    <t>сервопривод непрерывное вращение (360°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На выходном валу установлены два шарикоподшипника. Шестеренки - четыре нейлоновые и одна металлическая. </t>
+  </si>
+  <si>
+    <t>SG90</t>
+  </si>
+  <si>
+    <t>сервопривод (180°)</t>
+  </si>
+  <si>
+    <t>Все шестерни из пластмассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.5 мм x 11.8 мм x 22.7 мм</t>
+  </si>
+  <si>
+    <t>MG90S</t>
+  </si>
+  <si>
+    <t>22.8 мм x 12.2 мм x 28.5 мм</t>
+  </si>
+  <si>
+    <t>металл мотор</t>
+  </si>
+  <si>
+    <t>сервопривод (360°)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +219,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -460,6 +541,58 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -467,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -479,9 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -507,9 +637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
@@ -547,10 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,8 +686,74 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,259 +1077,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="27"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="9">
+      <c r="C5" s="16"/>
+      <c r="D5" s="8">
         <v>403.56</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>540.25</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>221.31</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
         <v>344.33</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="9">
+      <c r="C6" s="16"/>
+      <c r="D6" s="8">
         <v>541.54999999999995</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <v>657.41</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <v>194.62</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <v>362.55</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9">
+      <c r="C7" s="17"/>
+      <c r="D7" s="8">
         <v>585.80999999999995</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>598.83000000000004</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>240.84</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
         <v>329.36</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8">
         <v>598.83000000000004</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>240.84</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
         <v>329.36</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="9">
+      <c r="C9" s="17"/>
+      <c r="D9" s="8">
         <v>494.03</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>607.29</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>240.84</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>180.95</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>343.03</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
+      <c r="C10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>175.75</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>377.52</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="C11" s="18"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>641.13</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>253.85</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
         <v>358</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="9">
+      <c r="C12" s="18"/>
+      <c r="D12" s="8">
         <v>490.78</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
         <v>598.83000000000004</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>240.84</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
         <v>329.36</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
         <v>126.28</v>
       </c>
     </row>
@@ -1147,24 +1337,24 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="C13" s="18"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>455.63</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>617.04999999999995</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
         <v>268.17</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
         <v>372.97</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10">
+      <c r="K13" s="8"/>
+      <c r="L13" s="9">
         <v>143.19999999999999</v>
       </c>
     </row>
@@ -1172,28 +1362,28 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9">
+      <c r="C14" s="18"/>
+      <c r="D14" s="8">
         <v>445.87</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>389.25</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>546.75</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>169.24</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>325.45</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>312.43</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>154.91999999999999</v>
       </c>
     </row>
@@ -1201,24 +1391,24 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9">
+      <c r="C15" s="18"/>
+      <c r="D15" s="8">
         <v>529.83000000000004</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <v>655.45</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>215.45</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
         <v>361.9</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>156.22</v>
       </c>
     </row>
@@ -1226,22 +1416,22 @@
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20">
         <v>587.1</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>257.97000000000003</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
         <v>483.78</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -1250,57 +1440,57 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="B20" s="7"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3">
@@ -1370,24 +1560,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="40">
+        <v>90</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="47">
+        <v>180</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="41">
+        <v>350</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="41">
+        <v>550</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="58"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="58"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="58"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="58"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="58"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="58"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B3:B4" r:id="rId5" display="сервопривод (180°)"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -1,26 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94B20-A983-4491-952A-E34641F4B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="12435" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
     <sheet name="изделия" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>VLaskin</author>
   </authors>
   <commentList>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>GREAT WALL Electronics Co., Ltd.</t>
   </si>
@@ -177,13 +195,28 @@
   </si>
   <si>
     <t>сервопривод (360°)</t>
+  </si>
+  <si>
+    <t>Всего доступно  байт.</t>
+  </si>
+  <si>
+    <t>Глобальные переменные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скетч использует </t>
+  </si>
+  <si>
+    <t>Памяти устройства</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +268,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -274,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -593,6 +642,80 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -600,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -677,25 +800,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -740,25 +848,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,14 +909,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -811,9 +957,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,9 +992,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,9 +1044,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1056,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1078,21 +1258,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1102,22 +1282,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1539,18 +1719,18 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://ru.aliexpress.com/store/721071"/>
-    <hyperlink ref="B5" r:id="rId2" tooltip="GREAT WALL Electronics Co., Ltd." display="http://www.aliexpress.com/store/731260"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="A+A+A+" display="http://www.aliexpress.com/store/110055"/>
-    <hyperlink ref="B8" r:id="rId4" display="http://ru.aliexpress.com/store/535576"/>
-    <hyperlink ref="B9" r:id="rId5" tooltip="Corn Green" display="http://ru.aliexpress.com/store/1905393"/>
-    <hyperlink ref="B10" r:id="rId6" display="http://ru.aliexpress.com/store/1337009"/>
-    <hyperlink ref="B11" r:id="rId7" display="http://ru.aliexpress.com/store/1630603"/>
-    <hyperlink ref="B12" r:id="rId8" display="http://ru.aliexpress.com/store/403088"/>
-    <hyperlink ref="B13" r:id="rId9" display="http://ru.aliexpress.com/store/1757110"/>
-    <hyperlink ref="B14" r:id="rId10" display="http://ru.aliexpress.com/store/1516062"/>
-    <hyperlink ref="B15" r:id="rId11" display="http://ru.aliexpress.com/store/1182157"/>
-    <hyperlink ref="B16" r:id="rId12" display="http://ru.aliexpress.com/store/214486"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://ru.aliexpress.com/store/721071" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" tooltip="GREAT WALL Electronics Co., Ltd." display="http://www.aliexpress.com/store/731260" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="A+A+A+" display="http://www.aliexpress.com/store/110055" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" display="http://ru.aliexpress.com/store/535576" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="Corn Green" display="http://ru.aliexpress.com/store/1905393" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" display="http://ru.aliexpress.com/store/1337009" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://ru.aliexpress.com/store/1630603" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="http://ru.aliexpress.com/store/403088" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="http://ru.aliexpress.com/store/1757110" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" display="http://ru.aliexpress.com/store/1516062" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" display="http://ru.aliexpress.com/store/1182157" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" display="http://ru.aliexpress.com/store/214486" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId13"/>
@@ -1559,10 +1739,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1578,176 +1758,506 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="35">
         <v>90</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="42">
         <v>180</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="36">
         <v>350</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>550</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="44"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B3:B4" r:id="rId5" display="сервопривод (180°)"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B3:B4" r:id="rId5" display="сервопривод (180°)" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B4D82-95FA-4E75-A305-7A414E0C2778}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="67">
+        <v>1310720</v>
+      </c>
+      <c r="D1" s="67">
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="67">
+        <v>808849</v>
+      </c>
+      <c r="C3" s="65">
+        <f>B3/$B$1</f>
+        <v>0.61710281372070308</v>
+      </c>
+      <c r="D3" s="67">
+        <v>44612</v>
+      </c>
+      <c r="E3" s="65">
+        <f>D3/$D$1</f>
+        <v>0.13614501953124999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="67">
+        <v>808913</v>
+      </c>
+      <c r="C4" s="65">
+        <f>B4/$B$1</f>
+        <v>0.61715164184570315</v>
+      </c>
+      <c r="D4" s="67">
+        <v>44612</v>
+      </c>
+      <c r="E4" s="65">
+        <f>D4/$D$1</f>
+        <v>0.13614501953124999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="65"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="65"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="65"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="65"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="65"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="65"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="65"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="65"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="65"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="65"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="65"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="65"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="65"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94B20-A983-4491-952A-E34641F4B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110D65C-6679-4201-9E09-F28DEA6C7C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17970" yWindow="2190" windowWidth="9450" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
@@ -857,47 +857,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1262,17 +1262,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1282,22 +1282,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
@@ -1937,320 +1937,330 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="67">
+      <c r="B1" s="58">
         <v>1310720</v>
       </c>
-      <c r="D1" s="67">
+      <c r="D1" s="58">
         <v>327680</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="67">
+      <c r="A3" s="53"/>
+      <c r="B3" s="58">
         <v>808849</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="56">
         <f>B3/$B$1</f>
         <v>0.61710281372070308</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="58">
         <v>44612</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="56">
         <f>D3/$D$1</f>
         <v>0.13614501953124999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="67">
-        <v>808913</v>
-      </c>
-      <c r="C4" s="65">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58">
+        <v>808861</v>
+      </c>
+      <c r="C4" s="56">
         <f>B4/$B$1</f>
-        <v>0.61715164184570315</v>
-      </c>
-      <c r="D4" s="67">
+        <v>0.61711196899414067</v>
+      </c>
+      <c r="D4" s="58">
         <v>44612</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="56">
         <f>D4/$D$1</f>
         <v>0.13614501953124999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="58">
+        <v>809305</v>
+      </c>
+      <c r="C5" s="56">
+        <f>B5/$B$1</f>
+        <v>0.61745071411132813</v>
+      </c>
+      <c r="D5" s="58">
+        <v>44556</v>
+      </c>
+      <c r="E5" s="56">
+        <f>D5/$D$1</f>
+        <v>0.13597412109375001</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="65"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="65"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="65"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="65"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="65"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="65"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="65"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="65"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="65"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="65"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="65"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="65"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="65"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="65"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="65"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="65"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="65"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="65"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="65"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="65"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="65"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="56"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="56"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="65"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="56"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="56"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="65"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="56"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="65"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="56"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="65"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="56"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="66"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110D65C-6679-4201-9E09-F28DEA6C7C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C44EA-5DB3-4C44-8BA9-C34CBD8A5CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="2190" windowWidth="9450" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
     <sheet name="изделия" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="SmartClock32" sheetId="3" r:id="rId3"/>
+    <sheet name="SmartClock8266" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -56,8 +57,61 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Владимир Ласкин</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{6020D1F1-DE2D-43CB-91C7-BEE00B981A1C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Variables and constants in RAM (global, static), used 29624 / 80192 bytes (36%)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{952A4591-7371-4B99-9108-D36BD71292FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Instruction RAM (IRAM_ATTR, ICACHE_RAM_ATTR), 
+used 60995 / 65536 bytes (93%)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{33B619BA-6076-4CDD-BC0D-9FBB71E3A5BB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Code in flash (default, ICACHE_FLASH_ATTR), used 315036 / 1048576 bytes (30%)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>GREAT WALL Electronics Co., Ltd.</t>
   </si>
@@ -197,9 +251,6 @@
     <t>сервопривод (360°)</t>
   </si>
   <si>
-    <t>Всего доступно  байт.</t>
-  </si>
-  <si>
     <t>Глобальные переменные</t>
   </si>
   <si>
@@ -207,14 +258,24 @@
   </si>
   <si>
     <t>Памяти устройства</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Instruction RAM</t>
+  </si>
+  <si>
+    <t>Code in flash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -723,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -857,8 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,6 +934,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,6 +965,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1262,17 +1339,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1282,22 +1359,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="63" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1852,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -1792,7 +1869,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
@@ -1937,330 +2014,345 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="62">
+        <f ca="1">NOW()</f>
+        <v>45334.053180439812</v>
+      </c>
+      <c r="B1" s="56">
+        <v>1310720</v>
+      </c>
+      <c r="D1" s="56">
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="58">
-        <v>1310720</v>
-      </c>
-      <c r="D1" s="58">
-        <v>327680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="58">
+      <c r="A3" s="75"/>
+      <c r="B3" s="56">
         <v>808849</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <f>B3/$B$1</f>
         <v>0.61710281372070308</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="56">
         <v>44612</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="54">
         <f>D3/$D$1</f>
         <v>0.13614501953124999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="58">
+      <c r="A4" s="75"/>
+      <c r="B4" s="56">
         <v>808861</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="54">
         <f>B4/$B$1</f>
         <v>0.61711196899414067</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="56">
         <v>44612</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <f>D4/$D$1</f>
         <v>0.13614501953124999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="58">
+      <c r="A5" s="75">
+        <v>45331.98609953704</v>
+      </c>
+      <c r="B5" s="56">
         <v>809305</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <f>B5/$B$1</f>
         <v>0.61745071411132813</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="56">
         <v>44556</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <f>D5/$D$1</f>
         <v>0.13597412109375001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="56"/>
+      <c r="A6" s="76">
+        <v>45332.073997569445</v>
+      </c>
+      <c r="B6" s="56">
+        <v>809869</v>
+      </c>
+      <c r="C6" s="54">
+        <f>B6/$B$1</f>
+        <v>0.61788101196289058</v>
+      </c>
+      <c r="D6" s="56">
+        <v>44556</v>
+      </c>
+      <c r="E6" s="54">
+        <f>D6/$D$1</f>
+        <v>0.13597412109375001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="56"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="56"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="56"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="56"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="56"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="56"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="56"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="56"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="56"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="56"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="56"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="56"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="56"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="56"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="56"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="56"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="56"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="56"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="57"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2270,4 +2362,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D5354-2649-42F7-ADA3-87EF3768865B}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62">
+        <f ca="1">NOW()</f>
+        <v>45334.053180439812</v>
+      </c>
+      <c r="B1" s="56">
+        <v>80192</v>
+      </c>
+      <c r="D1" s="56">
+        <v>65536</v>
+      </c>
+      <c r="F1" s="56">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="56">
+        <v>29624</v>
+      </c>
+      <c r="C3" s="59">
+        <f>B3/$B$1</f>
+        <v>0.36941340782122906</v>
+      </c>
+      <c r="D3" s="56">
+        <v>60995</v>
+      </c>
+      <c r="E3" s="59">
+        <f>D3/$D$1</f>
+        <v>0.9307098388671875</v>
+      </c>
+      <c r="F3" s="56">
+        <v>315036</v>
+      </c>
+      <c r="G3" s="59">
+        <f>F3/$F$1</f>
+        <v>0.30044174194335938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
+        <v>45334.050180092592</v>
+      </c>
+      <c r="B4" s="56">
+        <v>32232</v>
+      </c>
+      <c r="C4" s="59">
+        <f>B4/$B$1</f>
+        <v>0.40193535514764567</v>
+      </c>
+      <c r="D4" s="56">
+        <v>60995</v>
+      </c>
+      <c r="E4" s="59">
+        <f>D4/$D$1</f>
+        <v>0.9307098388671875</v>
+      </c>
+      <c r="F4" s="56">
+        <v>315500</v>
+      </c>
+      <c r="G4" s="59">
+        <f>F4/$D$1</f>
+        <v>4.81414794921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="59">
+        <f>B5/$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="59">
+        <f>D5/$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="59">
+        <f>F5/$D$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="59"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="59"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="59"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="59"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="74"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C44EA-5DB3-4C44-8BA9-C34CBD8A5CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5045009-574D-4810-9D6B-71B9FA4A9A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,8 +940,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,10 +973,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1339,17 +1337,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1359,22 +1357,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1852,7 +1850,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -1869,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
@@ -2013,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B4D82-95FA-4E75-A305-7A414E0C2778}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2027,9 +2025,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62">
+      <c r="A1" s="61">
         <f ca="1">NOW()</f>
-        <v>45334.053180439812</v>
+        <v>45335.068531712961</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2042,17 +2040,17 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="56">
         <v>808849</v>
       </c>
@@ -2069,7 +2067,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="56">
         <v>808861</v>
       </c>
@@ -2086,7 +2084,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75">
+      <c r="A5" s="62">
         <v>45331.98609953704</v>
       </c>
       <c r="B5" s="56">
@@ -2105,7 +2103,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="76">
+      <c r="A6" s="63">
         <v>45332.073997569445</v>
       </c>
       <c r="B6" s="56">
@@ -2124,231 +2122,231 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="56"/>
       <c r="C7" s="54"/>
       <c r="D7" s="56"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="56"/>
       <c r="C8" s="54"/>
       <c r="D8" s="56"/>
       <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="56"/>
       <c r="C9" s="54"/>
       <c r="D9" s="56"/>
       <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="56"/>
       <c r="C10" s="54"/>
       <c r="D10" s="56"/>
       <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="56"/>
       <c r="C11" s="54"/>
       <c r="D11" s="56"/>
       <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="56"/>
       <c r="C12" s="54"/>
       <c r="D12" s="56"/>
       <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="56"/>
       <c r="C13" s="54"/>
       <c r="D13" s="56"/>
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="56"/>
       <c r="C14" s="54"/>
       <c r="D14" s="56"/>
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="56"/>
       <c r="C15" s="54"/>
       <c r="D15" s="56"/>
       <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
       <c r="D16" s="56"/>
       <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="56"/>
       <c r="C17" s="54"/>
       <c r="D17" s="56"/>
       <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54"/>
       <c r="D18" s="56"/>
       <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="56"/>
       <c r="C19" s="54"/>
       <c r="D19" s="56"/>
       <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="56"/>
       <c r="C20" s="54"/>
       <c r="D20" s="56"/>
       <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="56"/>
       <c r="C21" s="54"/>
       <c r="D21" s="56"/>
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="56"/>
       <c r="C22" s="54"/>
       <c r="D22" s="56"/>
       <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="56"/>
       <c r="C23" s="54"/>
       <c r="D23" s="56"/>
       <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="56"/>
       <c r="C24" s="54"/>
       <c r="D24" s="56"/>
       <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="56"/>
       <c r="C25" s="54"/>
       <c r="D25" s="56"/>
       <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="56"/>
       <c r="C26" s="54"/>
       <c r="D26" s="56"/>
       <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="56"/>
       <c r="C27" s="54"/>
       <c r="D27" s="56"/>
       <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="56"/>
       <c r="C28" s="54"/>
       <c r="D28" s="56"/>
       <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="56"/>
       <c r="C29" s="54"/>
       <c r="D29" s="56"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="56"/>
       <c r="C30" s="54"/>
       <c r="D30" s="56"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="56"/>
       <c r="C31" s="54"/>
       <c r="D31" s="56"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="56"/>
       <c r="C32" s="54"/>
       <c r="D32" s="56"/>
       <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="56"/>
       <c r="C33" s="54"/>
       <c r="D33" s="56"/>
       <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="56"/>
       <c r="C34" s="54"/>
       <c r="D34" s="56"/>
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="56"/>
       <c r="C35" s="54"/>
       <c r="D35" s="56"/>
       <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="56"/>
       <c r="C36" s="54"/>
       <c r="D36" s="56"/>
       <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="56"/>
       <c r="C37" s="54"/>
       <c r="D37" s="56"/>
       <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="56"/>
       <c r="C38" s="54"/>
       <c r="D38" s="56"/>
       <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="57"/>
       <c r="C39" s="55"/>
       <c r="D39" s="56"/>
@@ -2368,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D5354-2649-42F7-ADA3-87EF3768865B}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2384,9 +2382,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62">
+      <c r="A1" s="61">
         <f ca="1">NOW()</f>
-        <v>45334.053180439812</v>
+        <v>45335.068531712961</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2402,21 +2400,21 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="56">
         <v>29624</v>
       </c>
@@ -2440,7 +2438,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="62">
         <v>45334.050180092592</v>
       </c>
       <c r="B4" s="56">
@@ -2461,333 +2459,645 @@
         <v>315500</v>
       </c>
       <c r="G4" s="59">
-        <f>F4/$D$1</f>
-        <v>4.81414794921875</v>
+        <f t="shared" ref="G4:G39" si="0">F4/$F$1</f>
+        <v>0.30088424682617188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="62">
+        <v>45335.066202314818</v>
+      </c>
+      <c r="B5" s="56">
+        <v>32608</v>
+      </c>
       <c r="C5" s="59">
         <f>B5/$B$1</f>
-        <v>0</v>
+        <v>0.40662410215482842</v>
       </c>
       <c r="D5" s="56"/>
       <c r="E5" s="59">
         <f>D5/$D$1</f>
         <v>0</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="56">
+        <v>316588</v>
+      </c>
       <c r="G5" s="59">
-        <f>F5/$D$1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30192184448242188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="56"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59">
+        <f t="shared" ref="C6:C39" si="1">B6/$B$1</f>
+        <v>0</v>
+      </c>
       <c r="D6" s="56"/>
-      <c r="E6" s="59"/>
+      <c r="E6" s="59">
+        <f t="shared" ref="E6:E39" si="2">D6/$D$1</f>
+        <v>0</v>
+      </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="59"/>
+      <c r="G6" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="56"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D7" s="56"/>
-      <c r="E7" s="59"/>
+      <c r="E7" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="56"/>
-      <c r="C8" s="59"/>
+      <c r="C8" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D8" s="56"/>
-      <c r="E8" s="59"/>
+      <c r="E8" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="59"/>
+      <c r="G8" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D9" s="56"/>
-      <c r="E9" s="59"/>
+      <c r="E9" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="56"/>
-      <c r="G9" s="59"/>
+      <c r="G9" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="56"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D10" s="56"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="56"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
+      <c r="C11" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D11" s="56"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="56"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="56"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D12" s="56"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="56"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D13" s="56"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="56"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
+      <c r="C14" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D14" s="56"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="56"/>
-      <c r="G14" s="59"/>
+      <c r="G14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D15" s="56"/>
-      <c r="E15" s="59"/>
+      <c r="E15" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="59"/>
+      <c r="G15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D16" s="56"/>
-      <c r="E16" s="59"/>
+      <c r="E16" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="56"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
+      <c r="C17" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D17" s="56"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="56"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
+      <c r="C18" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D18" s="56"/>
-      <c r="E18" s="59"/>
+      <c r="E18" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="59"/>
+      <c r="G18" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D19" s="56"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="56"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D20" s="56"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="56"/>
-      <c r="G20" s="59"/>
+      <c r="G20" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D21" s="56"/>
-      <c r="E21" s="59"/>
+      <c r="E21" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="56"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
+      <c r="C22" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D22" s="56"/>
-      <c r="E22" s="59"/>
+      <c r="E22" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="56"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
+      <c r="C23" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D23" s="56"/>
-      <c r="E23" s="59"/>
+      <c r="E23" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="56"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
+      <c r="C24" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D24" s="56"/>
-      <c r="E24" s="59"/>
+      <c r="E24" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="56"/>
-      <c r="G24" s="59"/>
+      <c r="G24" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D25" s="56"/>
-      <c r="E25" s="59"/>
+      <c r="E25" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="56"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="59"/>
+      <c r="C26" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D26" s="56"/>
-      <c r="E26" s="59"/>
+      <c r="E26" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="56"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D27" s="56"/>
-      <c r="E27" s="59"/>
+      <c r="E27" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="56"/>
-      <c r="G27" s="59"/>
+      <c r="G27" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="59"/>
+      <c r="C28" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D28" s="56"/>
-      <c r="E28" s="59"/>
+      <c r="E28" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="56"/>
-      <c r="G28" s="59"/>
+      <c r="G28" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="59"/>
+      <c r="C29" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="56"/>
-      <c r="E29" s="59"/>
+      <c r="E29" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="56"/>
-      <c r="G29" s="59"/>
+      <c r="G29" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="59"/>
+      <c r="C30" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D30" s="56"/>
-      <c r="E30" s="59"/>
+      <c r="E30" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="59"/>
+      <c r="G30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="59"/>
+      <c r="E31" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="56"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="59"/>
+      <c r="C32" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D32" s="56"/>
-      <c r="E32" s="59"/>
+      <c r="E32" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="56"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="59"/>
+      <c r="C33" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D33" s="56"/>
-      <c r="E33" s="59"/>
+      <c r="E33" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="56"/>
-      <c r="G33" s="59"/>
+      <c r="G33" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="59"/>
+      <c r="C34" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D34" s="56"/>
-      <c r="E34" s="59"/>
+      <c r="E34" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="56"/>
-      <c r="G34" s="59"/>
+      <c r="G34" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="59"/>
+      <c r="C35" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D35" s="56"/>
-      <c r="E35" s="59"/>
+      <c r="E35" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="56"/>
-      <c r="G35" s="59"/>
+      <c r="G35" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="59"/>
+      <c r="C36" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D36" s="56"/>
-      <c r="E36" s="59"/>
+      <c r="E36" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="56"/>
-      <c r="G36" s="59"/>
+      <c r="G36" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="59"/>
+      <c r="C37" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D37" s="56"/>
-      <c r="E37" s="59"/>
+      <c r="E37" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="56"/>
-      <c r="G37" s="59"/>
+      <c r="G37" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="59"/>
+      <c r="C38" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D38" s="56"/>
-      <c r="E38" s="59"/>
+      <c r="E38" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F38" s="56"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D39" s="57"/>
-      <c r="E39" s="60"/>
+      <c r="E39" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="57"/>
-      <c r="G39" s="60"/>
+      <c r="G39" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5045009-574D-4810-9D6B-71B9FA4A9A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDD29A-0856-4BE1-8006-883B3D1A47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2027,7 +2027,7 @@
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61">
         <f ca="1">NOW()</f>
-        <v>45335.068531712961</v>
+        <v>45335.962107407409</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2367,7 +2367,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2375,8 +2375,8 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="58" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2384,7 +2384,7 @@
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61">
         <f ca="1">NOW()</f>
-        <v>45335.068531712961</v>
+        <v>45335.962107407409</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2488,21 +2488,27 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="62">
+        <v>45335.961994097219</v>
+      </c>
+      <c r="B6" s="56">
+        <v>32612</v>
+      </c>
       <c r="C6" s="59">
         <f t="shared" ref="C6:C39" si="1">B6/$B$1</f>
-        <v>0</v>
+        <v>0.40667398244213887</v>
       </c>
       <c r="D6" s="56"/>
       <c r="E6" s="59">
         <f t="shared" ref="E6:E39" si="2">D6/$D$1</f>
         <v>0</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="56">
+        <v>317292</v>
+      </c>
       <c r="G6" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30259323120117188</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDD29A-0856-4BE1-8006-883B3D1A47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146E40BF-A420-43BB-80B7-CE3741B9116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -940,10 +941,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,6 +969,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1337,17 +1346,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1357,22 +1366,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1859,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -1867,7 +1876,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
@@ -2011,13 +2020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B4D82-95FA-4E75-A305-7A414E0C2778}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -2025,9 +2032,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61">
+      <c r="A1" s="74">
         <f ca="1">NOW()</f>
-        <v>45335.962107407409</v>
+        <v>45339.90235196759</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2040,17 +2047,17 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="56">
         <v>808849</v>
       </c>
@@ -2067,7 +2074,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="56">
         <v>808861</v>
       </c>
@@ -2084,7 +2091,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="72">
         <v>45331.98609953704</v>
       </c>
       <c r="B5" s="56">
@@ -2103,7 +2110,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="75">
         <v>45332.073997569445</v>
       </c>
       <c r="B6" s="56">
@@ -2122,231 +2129,231 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="56"/>
       <c r="C7" s="54"/>
       <c r="D7" s="56"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="56"/>
       <c r="C8" s="54"/>
       <c r="D8" s="56"/>
       <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="56"/>
       <c r="C9" s="54"/>
       <c r="D9" s="56"/>
       <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="56"/>
       <c r="C10" s="54"/>
       <c r="D10" s="56"/>
       <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="56"/>
       <c r="C11" s="54"/>
       <c r="D11" s="56"/>
       <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="56"/>
       <c r="C12" s="54"/>
       <c r="D12" s="56"/>
       <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="56"/>
       <c r="C13" s="54"/>
       <c r="D13" s="56"/>
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="56"/>
       <c r="C14" s="54"/>
       <c r="D14" s="56"/>
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="56"/>
       <c r="C15" s="54"/>
       <c r="D15" s="56"/>
       <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
       <c r="D16" s="56"/>
       <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="56"/>
       <c r="C17" s="54"/>
       <c r="D17" s="56"/>
       <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54"/>
       <c r="D18" s="56"/>
       <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="56"/>
       <c r="C19" s="54"/>
       <c r="D19" s="56"/>
       <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="56"/>
       <c r="C20" s="54"/>
       <c r="D20" s="56"/>
       <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="56"/>
       <c r="C21" s="54"/>
       <c r="D21" s="56"/>
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="56"/>
       <c r="C22" s="54"/>
       <c r="D22" s="56"/>
       <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="56"/>
       <c r="C23" s="54"/>
       <c r="D23" s="56"/>
       <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="56"/>
       <c r="C24" s="54"/>
       <c r="D24" s="56"/>
       <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="56"/>
       <c r="C25" s="54"/>
       <c r="D25" s="56"/>
       <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="56"/>
       <c r="C26" s="54"/>
       <c r="D26" s="56"/>
       <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="56"/>
       <c r="C27" s="54"/>
       <c r="D27" s="56"/>
       <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="56"/>
       <c r="C28" s="54"/>
       <c r="D28" s="56"/>
       <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="56"/>
       <c r="C29" s="54"/>
       <c r="D29" s="56"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="56"/>
       <c r="C30" s="54"/>
       <c r="D30" s="56"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="56"/>
       <c r="C31" s="54"/>
       <c r="D31" s="56"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="56"/>
       <c r="C32" s="54"/>
       <c r="D32" s="56"/>
       <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="56"/>
       <c r="C33" s="54"/>
       <c r="D33" s="56"/>
       <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="56"/>
       <c r="C34" s="54"/>
       <c r="D34" s="56"/>
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="56"/>
       <c r="C35" s="54"/>
       <c r="D35" s="56"/>
       <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="56"/>
       <c r="C36" s="54"/>
       <c r="D36" s="56"/>
       <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="56"/>
       <c r="C37" s="54"/>
       <c r="D37" s="56"/>
       <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="56"/>
       <c r="C38" s="54"/>
       <c r="D38" s="56"/>
       <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="57"/>
       <c r="C39" s="55"/>
       <c r="D39" s="56"/>
@@ -2366,9 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D5354-2649-42F7-ADA3-87EF3768865B}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2382,9 +2387,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61">
+      <c r="A1" s="74">
         <f ca="1">NOW()</f>
-        <v>45335.962107407409</v>
+        <v>45339.90235196759</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2400,21 +2405,21 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="56">
         <v>29624</v>
       </c>
@@ -2438,7 +2443,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="72">
         <v>45334.050180092592</v>
       </c>
       <c r="B4" s="56">
@@ -2464,7 +2469,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="72">
         <v>45335.066202314818</v>
       </c>
       <c r="B5" s="56">
@@ -2488,7 +2493,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
+      <c r="A6" s="72">
         <v>45335.961994097219</v>
       </c>
       <c r="B6" s="56">
@@ -2512,43 +2517,55 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="72">
+        <v>45337.093403472223</v>
+      </c>
+      <c r="B7" s="56">
+        <v>35624</v>
+      </c>
       <c r="C7" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44423383878691142</v>
       </c>
       <c r="D7" s="56"/>
       <c r="E7" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="56">
+        <v>317212</v>
+      </c>
       <c r="G7" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30251693725585938</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="72">
+        <v>45339.900427314817</v>
+      </c>
+      <c r="B8" s="56">
+        <v>35684</v>
+      </c>
       <c r="C8" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44498204309656825</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="56">
+        <v>317356</v>
+      </c>
       <c r="G8" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30265426635742188</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="56"/>
       <c r="C9" s="59">
         <f t="shared" si="1"/>
@@ -2566,7 +2583,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="56"/>
       <c r="C10" s="59">
         <f t="shared" si="1"/>
@@ -2584,7 +2601,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="56"/>
       <c r="C11" s="59">
         <f t="shared" si="1"/>
@@ -2602,7 +2619,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="56"/>
       <c r="C12" s="59">
         <f t="shared" si="1"/>
@@ -2620,7 +2637,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="56"/>
       <c r="C13" s="59">
         <f t="shared" si="1"/>
@@ -2638,7 +2655,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="56"/>
       <c r="C14" s="59">
         <f t="shared" si="1"/>
@@ -2656,7 +2673,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="56"/>
       <c r="C15" s="59">
         <f t="shared" si="1"/>
@@ -2674,7 +2691,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="56"/>
       <c r="C16" s="59">
         <f t="shared" si="1"/>
@@ -2692,7 +2709,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="56"/>
       <c r="C17" s="59">
         <f t="shared" si="1"/>
@@ -2710,7 +2727,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="56"/>
       <c r="C18" s="59">
         <f t="shared" si="1"/>
@@ -2728,7 +2745,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="56"/>
       <c r="C19" s="59">
         <f t="shared" si="1"/>
@@ -2746,7 +2763,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="56"/>
       <c r="C20" s="59">
         <f t="shared" si="1"/>
@@ -2764,7 +2781,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="56"/>
       <c r="C21" s="59">
         <f t="shared" si="1"/>
@@ -2782,7 +2799,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="56"/>
       <c r="C22" s="59">
         <f t="shared" si="1"/>
@@ -2800,7 +2817,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="56"/>
       <c r="C23" s="59">
         <f t="shared" si="1"/>
@@ -2818,7 +2835,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="56"/>
       <c r="C24" s="59">
         <f t="shared" si="1"/>
@@ -2836,7 +2853,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="56"/>
       <c r="C25" s="59">
         <f t="shared" si="1"/>
@@ -2854,7 +2871,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="56"/>
       <c r="C26" s="59">
         <f t="shared" si="1"/>
@@ -2872,7 +2889,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="56"/>
       <c r="C27" s="59">
         <f t="shared" si="1"/>
@@ -2890,7 +2907,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="56"/>
       <c r="C28" s="59">
         <f t="shared" si="1"/>
@@ -2908,7 +2925,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="56"/>
       <c r="C29" s="59">
         <f t="shared" si="1"/>
@@ -2926,7 +2943,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="56"/>
       <c r="C30" s="59">
         <f t="shared" si="1"/>
@@ -2944,7 +2961,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="56"/>
       <c r="C31" s="59">
         <f t="shared" si="1"/>
@@ -2962,7 +2979,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="56"/>
       <c r="C32" s="59">
         <f t="shared" si="1"/>
@@ -2980,7 +2997,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="56"/>
       <c r="C33" s="59">
         <f t="shared" si="1"/>
@@ -2998,7 +3015,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="56"/>
       <c r="C34" s="59">
         <f t="shared" si="1"/>
@@ -3016,7 +3033,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="56"/>
       <c r="C35" s="59">
         <f t="shared" si="1"/>
@@ -3034,7 +3051,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="56"/>
       <c r="C36" s="59">
         <f t="shared" si="1"/>
@@ -3052,7 +3069,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="56"/>
       <c r="C37" s="59">
         <f t="shared" si="1"/>
@@ -3070,7 +3087,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="56"/>
       <c r="C38" s="59">
         <f t="shared" si="1"/>
@@ -3088,7 +3105,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60">
         <f t="shared" si="1"/>

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146E40BF-A420-43BB-80B7-CE3741B9116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1D547-E59D-4E11-8BDF-CE80524AFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="магазины" sheetId="1" r:id="rId1"/>
@@ -941,6 +941,18 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,18 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,17 +1346,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1366,22 +1366,22 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="63" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="48" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B4D82-95FA-4E75-A305-7A414E0C2778}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2032,9 +2032,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74">
+      <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45339.90235196759</v>
+        <v>45340.91648078704</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2047,17 +2047,17 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="56">
         <v>808849</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="56">
         <v>808861</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="61">
         <v>45331.98609953704</v>
       </c>
       <c r="B5" s="56">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75">
+      <c r="A6" s="64">
         <v>45332.073997569445</v>
       </c>
       <c r="B6" s="56">
@@ -2129,231 +2129,231 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="56"/>
       <c r="C7" s="54"/>
       <c r="D7" s="56"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="56"/>
       <c r="C8" s="54"/>
       <c r="D8" s="56"/>
       <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="56"/>
       <c r="C9" s="54"/>
       <c r="D9" s="56"/>
       <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="56"/>
       <c r="C10" s="54"/>
       <c r="D10" s="56"/>
       <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="56"/>
       <c r="C11" s="54"/>
       <c r="D11" s="56"/>
       <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="56"/>
       <c r="C12" s="54"/>
       <c r="D12" s="56"/>
       <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="56"/>
       <c r="C13" s="54"/>
       <c r="D13" s="56"/>
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="56"/>
       <c r="C14" s="54"/>
       <c r="D14" s="56"/>
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="56"/>
       <c r="C15" s="54"/>
       <c r="D15" s="56"/>
       <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
       <c r="D16" s="56"/>
       <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="56"/>
       <c r="C17" s="54"/>
       <c r="D17" s="56"/>
       <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54"/>
       <c r="D18" s="56"/>
       <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="56"/>
       <c r="C19" s="54"/>
       <c r="D19" s="56"/>
       <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="56"/>
       <c r="C20" s="54"/>
       <c r="D20" s="56"/>
       <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="56"/>
       <c r="C21" s="54"/>
       <c r="D21" s="56"/>
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="56"/>
       <c r="C22" s="54"/>
       <c r="D22" s="56"/>
       <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="56"/>
       <c r="C23" s="54"/>
       <c r="D23" s="56"/>
       <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="56"/>
       <c r="C24" s="54"/>
       <c r="D24" s="56"/>
       <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="56"/>
       <c r="C25" s="54"/>
       <c r="D25" s="56"/>
       <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="56"/>
       <c r="C26" s="54"/>
       <c r="D26" s="56"/>
       <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="56"/>
       <c r="C27" s="54"/>
       <c r="D27" s="56"/>
       <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="56"/>
       <c r="C28" s="54"/>
       <c r="D28" s="56"/>
       <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="56"/>
       <c r="C29" s="54"/>
       <c r="D29" s="56"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="56"/>
       <c r="C30" s="54"/>
       <c r="D30" s="56"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="56"/>
       <c r="C31" s="54"/>
       <c r="D31" s="56"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="56"/>
       <c r="C32" s="54"/>
       <c r="D32" s="56"/>
       <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="56"/>
       <c r="C33" s="54"/>
       <c r="D33" s="56"/>
       <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="56"/>
       <c r="C34" s="54"/>
       <c r="D34" s="56"/>
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="56"/>
       <c r="C35" s="54"/>
       <c r="D35" s="56"/>
       <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="56"/>
       <c r="C36" s="54"/>
       <c r="D36" s="56"/>
       <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="56"/>
       <c r="C37" s="54"/>
       <c r="D37" s="56"/>
       <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="56"/>
       <c r="C38" s="54"/>
       <c r="D38" s="56"/>
       <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="57"/>
       <c r="C39" s="55"/>
       <c r="D39" s="56"/>
@@ -2373,23 +2373,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D5354-2649-42F7-ADA3-87EF3768865B}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="58" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74">
+      <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45339.90235196759</v>
+        <v>45340.91648078704</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2405,21 +2407,21 @@
       <c r="A2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="56">
         <v>29624</v>
       </c>
@@ -2443,7 +2445,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="61">
         <v>45334.050180092592</v>
       </c>
       <c r="B4" s="56">
@@ -2469,7 +2471,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="61">
         <v>45335.066202314818</v>
       </c>
       <c r="B5" s="56">
@@ -2493,7 +2495,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+      <c r="A6" s="61">
         <v>45335.961994097219</v>
       </c>
       <c r="B6" s="56">
@@ -2517,7 +2519,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="A7" s="61">
         <v>45337.093403472223</v>
       </c>
       <c r="B7" s="56">
@@ -2541,7 +2543,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="61">
         <v>45339.900427314817</v>
       </c>
       <c r="B8" s="56">
@@ -2565,25 +2567,33 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="61">
+        <v>45340.914862847225</v>
+      </c>
+      <c r="B9" s="56">
+        <v>36820</v>
+      </c>
       <c r="C9" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="56"/>
+        <v>0.45914804469273746</v>
+      </c>
+      <c r="D9" s="56">
+        <v>61103</v>
+      </c>
       <c r="E9" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="56"/>
+        <v>0.9323577880859375</v>
+      </c>
+      <c r="F9" s="56">
+        <v>348232</v>
+      </c>
       <c r="G9" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33209991455078125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="56"/>
       <c r="C10" s="59">
         <f t="shared" si="1"/>
@@ -2601,7 +2611,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="56"/>
       <c r="C11" s="59">
         <f t="shared" si="1"/>
@@ -2619,7 +2629,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="56"/>
       <c r="C12" s="59">
         <f t="shared" si="1"/>
@@ -2637,7 +2647,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="56"/>
       <c r="C13" s="59">
         <f t="shared" si="1"/>
@@ -2655,7 +2665,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="56"/>
       <c r="C14" s="59">
         <f t="shared" si="1"/>
@@ -2673,7 +2683,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="56"/>
       <c r="C15" s="59">
         <f t="shared" si="1"/>
@@ -2691,7 +2701,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="56"/>
       <c r="C16" s="59">
         <f t="shared" si="1"/>
@@ -2709,7 +2719,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="56"/>
       <c r="C17" s="59">
         <f t="shared" si="1"/>
@@ -2727,7 +2737,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="56"/>
       <c r="C18" s="59">
         <f t="shared" si="1"/>
@@ -2745,7 +2755,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="56"/>
       <c r="C19" s="59">
         <f t="shared" si="1"/>
@@ -2763,7 +2773,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="56"/>
       <c r="C20" s="59">
         <f t="shared" si="1"/>
@@ -2781,7 +2791,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="56"/>
       <c r="C21" s="59">
         <f t="shared" si="1"/>
@@ -2799,7 +2809,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="56"/>
       <c r="C22" s="59">
         <f t="shared" si="1"/>
@@ -2817,7 +2827,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="56"/>
       <c r="C23" s="59">
         <f t="shared" si="1"/>
@@ -2835,7 +2845,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="56"/>
       <c r="C24" s="59">
         <f t="shared" si="1"/>
@@ -2853,7 +2863,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="56"/>
       <c r="C25" s="59">
         <f t="shared" si="1"/>
@@ -2871,7 +2881,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="56"/>
       <c r="C26" s="59">
         <f t="shared" si="1"/>
@@ -2889,7 +2899,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="56"/>
       <c r="C27" s="59">
         <f t="shared" si="1"/>
@@ -2907,7 +2917,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="56"/>
       <c r="C28" s="59">
         <f t="shared" si="1"/>
@@ -2925,7 +2935,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="56"/>
       <c r="C29" s="59">
         <f t="shared" si="1"/>
@@ -2943,7 +2953,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="56"/>
       <c r="C30" s="59">
         <f t="shared" si="1"/>
@@ -2961,7 +2971,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="56"/>
       <c r="C31" s="59">
         <f t="shared" si="1"/>
@@ -2979,7 +2989,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="56"/>
       <c r="C32" s="59">
         <f t="shared" si="1"/>
@@ -2997,7 +3007,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="56"/>
       <c r="C33" s="59">
         <f t="shared" si="1"/>
@@ -3015,7 +3025,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="56"/>
       <c r="C34" s="59">
         <f t="shared" si="1"/>
@@ -3033,7 +3043,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="56"/>
       <c r="C35" s="59">
         <f t="shared" si="1"/>
@@ -3051,7 +3061,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="56"/>
       <c r="C36" s="59">
         <f t="shared" si="1"/>
@@ -3069,7 +3079,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="56"/>
       <c r="C37" s="59">
         <f t="shared" si="1"/>
@@ -3087,7 +3097,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="56"/>
       <c r="C38" s="59">
         <f t="shared" si="1"/>
@@ -3105,7 +3115,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60">
         <f t="shared" si="1"/>

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1D547-E59D-4E11-8BDF-CE80524AFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42230DE9-2C8F-4FE8-B3AD-2EA574543CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,7 +2034,7 @@
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45340.91648078704</v>
+        <v>45351.054019560186</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2374,16 +2374,16 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="58" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2391,7 +2391,7 @@
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45340.91648078704</v>
+        <v>45351.054019560186</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2593,21 +2593,27 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="61">
+        <v>45351.053329050927</v>
+      </c>
+      <c r="B10" s="56">
+        <v>37412</v>
+      </c>
       <c r="C10" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.46653032721468474</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="56">
+        <v>350264</v>
+      </c>
       <c r="G10" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33403778076171875</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42230DE9-2C8F-4FE8-B3AD-2EA574543CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1249B5D4-E591-4914-B530-4E2D5FB9639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,7 +2034,7 @@
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45351.054019560186</v>
+        <v>45357.960762615738</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2391,7 +2391,7 @@
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45351.054019560186</v>
+        <v>45357.960762615738</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2617,21 +2617,27 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="61">
+        <v>45357.960254745369</v>
+      </c>
+      <c r="B11" s="56">
+        <v>37600</v>
+      </c>
       <c r="C11" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.46887470071827614</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="56">
+        <v>350808</v>
+      </c>
       <c r="G11" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33455657958984375</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/arduino/ФСА для ALI магазин.xlsx
+++ b/arduino/ФСА для ALI магазин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1249B5D4-E591-4914-B530-4E2D5FB9639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC02C6-1838-4020-B56F-8265BB0E478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,7 +2034,7 @@
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45357.960762615738</v>
+        <v>45370.003913310182</v>
       </c>
       <c r="B1" s="56">
         <v>1310720</v>
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63">
         <f ca="1">NOW()</f>
-        <v>45357.960762615738</v>
+        <v>45370.003913310182</v>
       </c>
       <c r="B1" s="56">
         <v>80192</v>
@@ -2641,21 +2641,29 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="61">
+        <v>45370.003228935188</v>
+      </c>
+      <c r="B12" s="56">
+        <v>37412</v>
+      </c>
       <c r="C12" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="56"/>
+        <v>0.46653032721468474</v>
+      </c>
+      <c r="D12" s="56">
+        <v>61103</v>
+      </c>
       <c r="E12" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="56"/>
+        <v>0.9323577880859375</v>
+      </c>
+      <c r="F12" s="56">
+        <v>350632</v>
+      </c>
       <c r="G12" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33438873291015625</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
